--- a/Configs/Datas/Effects/DirChangeEffect.xlsx
+++ b/Configs/Datas/Effects/DirChangeEffect.xlsx
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1097,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="6" spans="3:6">
       <c r="C6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E6">
         <v>2</v>

--- a/Configs/Datas/Effects/DirChangeEffect.xlsx
+++ b/Configs/Datas/Effects/DirChangeEffect.xlsx
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1100,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="E6">
         <v>2</v>

--- a/Configs/Datas/Effects/DirChangeEffect.xlsx
+++ b/Configs/Datas/Effects/DirChangeEffect.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12525"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1014,14 +1014,14 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="16.8727272727273" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="20.7545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1073,7 +1073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:12">
+    <row r="4" ht="28" spans="1:12">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1128,10 +1128,10 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1156,7 +1156,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1173,7 +1173,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/Effects/DirChangeEffect.xlsx
+++ b/Configs/Datas/Effects/DirChangeEffect.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="17490" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1014,14 +1014,14 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="3" max="3" width="16.8727272727273" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="20.7545454545455" customWidth="1"/>
+    <col min="5" max="5" width="20.7583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1073,7 +1073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:12">
+    <row r="4" ht="27" spans="1:12">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1156,7 +1156,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1173,7 +1173,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
